--- a/biology/Neurosciences/Corps_de_Nissl/Corps_de_Nissl.xlsx
+++ b/biology/Neurosciences/Corps_de_Nissl/Corps_de_Nissl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les corps de Nissl sont des agrégats de réticulum endoplasmique rugueux (RER). Les citernes du REG se sont rassemblées et on trouve de très nombreux ribosomes libres. Ils se situent dans le corps cellulaire (péricaryon) du neurone. Présents également à la base des dendrites, les corps de Nissl sont par contre totalement absents de l'axone et de son cône d'implantation (cône de Doyère).
 Les corps (ou corpuscule) de Nissl interviennent dans les synthèses protéiques car ils contiennent de l’ARN messager. 
